--- a/xlsx/infsup.xlsx
+++ b/xlsx/infsup.xlsx
@@ -361,13 +361,13 @@
         <v>4</v>
       </c>
       <c r="C1">
-        <v>1.967376303542264</v>
+        <v>1.9754842741605136</v>
       </c>
       <c r="D1">
         <v>4</v>
       </c>
       <c r="E1">
-        <v>1.967376303542264</v>
+        <v>1.9754842741605136</v>
       </c>
       <c r="F1">
         <v>0.0049098445278776956</v>
@@ -399,13 +399,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1.087839192175461</v>
+        <v>1.0885649801513488</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>1.087839192175461</v>
+        <v>1.0885649801513488</v>
       </c>
       <c r="F2">
         <v>0.0049098445278776956</v>
@@ -437,13 +437,13 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.0408176903973692</v>
+        <v>1.0420969241656552</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>1.0408176903973692</v>
+        <v>1.0420969241656552</v>
       </c>
       <c r="F3">
         <v>0.0049098445278776956</v>
@@ -475,13 +475,13 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>0.9893047009216803</v>
+        <v>0.9906216251632171</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>0.9893047009216803</v>
+        <v>0.9906216251632171</v>
       </c>
       <c r="F4">
         <v>0.0049098445278776956</v>
@@ -513,13 +513,13 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>0.9762239510143996</v>
+        <v>0.978329731622997</v>
       </c>
       <c r="D5">
         <v>36</v>
       </c>
       <c r="E5">
-        <v>0.9762239510143996</v>
+        <v>0.978329731622997</v>
       </c>
       <c r="F5">
         <v>0.0049098445278776956</v>
@@ -551,13 +551,13 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>0.9681882767944553</v>
+        <v>0.9711459744061496</v>
       </c>
       <c r="D6">
         <v>49</v>
       </c>
       <c r="E6">
-        <v>0.9681882767944553</v>
+        <v>0.9711459744061496</v>
       </c>
       <c r="F6">
         <v>0.0049098445278776956</v>
@@ -589,13 +589,13 @@
         <v>64</v>
       </c>
       <c r="C7">
-        <v>0.9638854400039205</v>
+        <v>0.9674190562335845</v>
       </c>
       <c r="D7">
         <v>64</v>
       </c>
       <c r="E7">
-        <v>0.9638854400039205</v>
+        <v>0.9674190562335845</v>
       </c>
       <c r="F7">
         <v>0.0049098445278776956</v>
@@ -627,13 +627,13 @@
         <v>81</v>
       </c>
       <c r="C8">
-        <v>0.9561577990309759</v>
+        <v>0.9649704825965736</v>
       </c>
       <c r="D8">
         <v>81</v>
       </c>
       <c r="E8">
-        <v>0.9561577990309759</v>
+        <v>0.9649704825965736</v>
       </c>
       <c r="F8">
         <v>0.0049098445278776956</v>
@@ -665,13 +665,13 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.9426663534614277</v>
+        <v>0.9602928432328734</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>0.9426663534614277</v>
+        <v>0.9602928432328734</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -682,13 +682,13 @@
         <v>121</v>
       </c>
       <c r="C10">
-        <v>0.9246803796830673</v>
+        <v>0.9444717162098366</v>
       </c>
       <c r="D10">
         <v>121</v>
       </c>
       <c r="E10">
-        <v>0.9246803796830673</v>
+        <v>0.9444717162098366</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -699,13 +699,13 @@
         <v>144</v>
       </c>
       <c r="C11">
-        <v>0.9021364645817949</v>
+        <v>0.9204332808152632</v>
       </c>
       <c r="D11">
         <v>144</v>
       </c>
       <c r="E11">
-        <v>0.9021364645817949</v>
+        <v>0.9204332808152632</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -716,13 +716,13 @@
         <v>169</v>
       </c>
       <c r="C12">
-        <v>0.8751212902970806</v>
+        <v>0.8873833177199661</v>
       </c>
       <c r="D12">
         <v>169</v>
       </c>
       <c r="E12">
-        <v>0.8751212902970806</v>
+        <v>0.8873833177199661</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -733,13 +733,13 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.84390567069679</v>
+        <v>0.8468205737986825</v>
       </c>
       <c r="D13">
         <v>196</v>
       </c>
       <c r="E13">
-        <v>0.84390567069679</v>
+        <v>0.8468205737986825</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -750,13 +750,13 @@
         <v>225</v>
       </c>
       <c r="C14">
-        <v>0.808742265933</v>
+        <v>0.7982967251021671</v>
       </c>
       <c r="D14">
         <v>225</v>
       </c>
       <c r="E14">
-        <v>0.808742265933</v>
+        <v>0.7982967251021671</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -767,13 +767,13 @@
         <v>256</v>
       </c>
       <c r="C15">
-        <v>0.767736776598667</v>
+        <v>0.7403881369709298</v>
       </c>
       <c r="D15">
         <v>256</v>
       </c>
       <c r="E15">
-        <v>0.767736776598667</v>
+        <v>0.7403881369709298</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -784,13 +784,13 @@
         <v>289</v>
       </c>
       <c r="C16">
-        <v>0.7331840149612144</v>
+        <v>0.6589847206683123</v>
       </c>
       <c r="D16">
         <v>289</v>
       </c>
       <c r="E16">
-        <v>0.7331840149612144</v>
+        <v>0.6589847206683123</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -801,13 +801,13 @@
         <v>324</v>
       </c>
       <c r="C17">
-        <v>0.6754329610832358</v>
+        <v>0.5494997616130173</v>
       </c>
       <c r="D17">
         <v>324</v>
       </c>
       <c r="E17">
-        <v>0.6754329610832358</v>
+        <v>0.5494997616130173</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -818,13 +818,13 @@
         <v>361</v>
       </c>
       <c r="C18">
-        <v>0.6457755875193891</v>
+        <v>0.466078369663287</v>
       </c>
       <c r="D18">
         <v>361</v>
       </c>
       <c r="E18">
-        <v>0.6457755875193891</v>
+        <v>0.466078369663287</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -835,13 +835,13 @@
         <v>400</v>
       </c>
       <c r="C19">
-        <v>0.611024203375141</v>
+        <v>0.3892520536453051</v>
       </c>
       <c r="D19">
         <v>400</v>
       </c>
       <c r="E19">
-        <v>0.611024203375141</v>
+        <v>0.3892520536453051</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -852,13 +852,13 @@
         <v>441</v>
       </c>
       <c r="C20">
-        <v>0.5700491934548794</v>
+        <v>0.3165008649493551</v>
       </c>
       <c r="D20">
         <v>441</v>
       </c>
       <c r="E20">
-        <v>0.5700491934548794</v>
+        <v>0.3165008649493551</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -869,13 +869,13 @@
         <v>484</v>
       </c>
       <c r="C21">
-        <v>0.5297612679354691</v>
+        <v>0.24953100361754266</v>
       </c>
       <c r="D21">
         <v>484</v>
       </c>
       <c r="E21">
-        <v>0.5297612679354691</v>
+        <v>0.24953100361754266</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -886,13 +886,13 @@
         <v>529</v>
       </c>
       <c r="C22">
-        <v>0.49102002538385464</v>
+        <v>0.18994976967951885</v>
       </c>
       <c r="D22">
         <v>529</v>
       </c>
       <c r="E22">
-        <v>0.49102002538385464</v>
+        <v>0.18994976967951885</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -903,13 +903,13 @@
         <v>576</v>
       </c>
       <c r="C23">
-        <v>0.4541725672772507</v>
+        <v>0.1395936609963249</v>
       </c>
       <c r="D23">
         <v>576</v>
       </c>
       <c r="E23">
-        <v>0.4541725672772507</v>
+        <v>0.1395936609963249</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -920,13 +920,13 @@
         <v>625</v>
       </c>
       <c r="C24">
-        <v>0.4190320865314683</v>
+        <v>0.09879192338876346</v>
       </c>
       <c r="D24">
         <v>625</v>
       </c>
       <c r="E24">
-        <v>0.4190320865314683</v>
+        <v>0.09879192338876346</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -937,13 +937,13 @@
         <v>676</v>
       </c>
       <c r="C25">
-        <v>0.3846233952780977</v>
+        <v>0.06797100054344768</v>
       </c>
       <c r="D25">
         <v>676</v>
       </c>
       <c r="E25">
-        <v>0.3846233952780977</v>
+        <v>0.06797100054344768</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -954,13 +954,13 @@
         <v>729</v>
       </c>
       <c r="C26">
-        <v>0.34923935791919636</v>
+        <v>0.04558661263527834</v>
       </c>
       <c r="D26">
         <v>729</v>
       </c>
       <c r="E26">
-        <v>0.34923935791919636</v>
+        <v>0.04558661263527834</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -971,13 +971,13 @@
         <v>784</v>
       </c>
       <c r="C27">
-        <v>0.31398055425463783</v>
+        <v>0.029974253217230955</v>
       </c>
       <c r="D27">
         <v>784</v>
       </c>
       <c r="E27">
-        <v>0.31398055425463783</v>
+        <v>0.029974253217230955</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -988,13 +988,13 @@
         <v>841</v>
       </c>
       <c r="C28">
-        <v>0.27248464146761664</v>
+        <v>0.01919756691102862</v>
       </c>
       <c r="D28">
         <v>841</v>
       </c>
       <c r="E28">
-        <v>0.27248464146761664</v>
+        <v>0.01919756691102862</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1005,13 +1005,13 @@
         <v>900</v>
       </c>
       <c r="C29">
-        <v>0.24073600963478947</v>
+        <v>0.011641801268846227</v>
       </c>
       <c r="D29">
         <v>900</v>
       </c>
       <c r="E29">
-        <v>0.24073600963478947</v>
+        <v>0.011641801268846227</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1022,13 +1022,13 @@
         <v>961</v>
       </c>
       <c r="C30">
-        <v>0.20113857386459608</v>
+        <v>0.006089594782570293</v>
       </c>
       <c r="D30">
         <v>961</v>
       </c>
       <c r="E30">
-        <v>0.20113857386459608</v>
+        <v>0.006089594782570293</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1039,13 +1039,13 @@
         <v>1024</v>
       </c>
       <c r="C31">
-        <v>0.1367392390389119</v>
+        <v>0.0019031992049089986</v>
       </c>
       <c r="D31">
         <v>1024</v>
       </c>
       <c r="E31">
-        <v>0.1367392390389119</v>
+        <v>0.0019031992049089986</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1053,16 +1053,16 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C32">
-        <v>0.0035749003693888903</v>
+        <v>0.00011427384826174295</v>
       </c>
       <c r="D32">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E32">
-        <v>0.0035749003693888903</v>
+        <v>0.00011427384826174295</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1070,16 +1070,16 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="C33">
-        <v>0.0007490105944215875</v>
+        <v>0.00011121648103035386</v>
       </c>
       <c r="D33">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="E33">
-        <v>0.0007490105944215875</v>
+        <v>0.00011121648103035386</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1087,16 +1087,16 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1225</v>
+        <v>1194</v>
       </c>
       <c r="C34">
-        <v>0.0006079414280902578</v>
+        <v>0.00010013361723125923</v>
       </c>
       <c r="D34">
-        <v>1225</v>
+        <v>1194</v>
       </c>
       <c r="E34">
-        <v>0.0006079414280902578</v>
+        <v>0.00010013361723125923</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1104,16 +1104,16 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1296</v>
+        <v>1240</v>
       </c>
       <c r="C35">
-        <v>0.00048337532684124116</v>
+        <v>0.00010150644517703566</v>
       </c>
       <c r="D35">
-        <v>1296</v>
+        <v>1240</v>
       </c>
       <c r="E35">
-        <v>0.00048337532684124116</v>
+        <v>0.00010150644517703566</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1121,16 +1121,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1369</v>
+        <v>1266</v>
       </c>
       <c r="C36">
-        <v>0.00014063211013982295</v>
+        <v>0.00010039552592447406</v>
       </c>
       <c r="D36">
-        <v>1369</v>
+        <v>1266</v>
       </c>
       <c r="E36">
-        <v>0.00014063211013982295</v>
+        <v>0.00010039552592447406</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1138,16 +1138,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1436</v>
+        <v>1282</v>
       </c>
       <c r="C37">
-        <v>0.00015550094039562006</v>
+        <v>0.00011183325727031876</v>
       </c>
       <c r="D37">
-        <v>1436</v>
+        <v>1282</v>
       </c>
       <c r="E37">
-        <v>0.00015550094039562006</v>
+        <v>0.00011183325727031876</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1155,16 +1155,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1497</v>
+        <v>1292</v>
       </c>
       <c r="C38">
-        <v>0.00011742511246590567</v>
+        <v>0.00010534745975556318</v>
       </c>
       <c r="D38">
-        <v>1497</v>
+        <v>1292</v>
       </c>
       <c r="E38">
-        <v>0.00011742511246590567</v>
+        <v>0.00010534745975556318</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1531</v>
+        <v>1301</v>
       </c>
       <c r="C39">
-        <v>0.00015058472328059852</v>
+        <v>0.00010115923198998758</v>
       </c>
       <c r="D39">
-        <v>1531</v>
+        <v>1301</v>
       </c>
       <c r="E39">
-        <v>0.00015058472328059852</v>
+        <v>0.00010115923198998758</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1189,16 +1189,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1536</v>
+        <v>1298</v>
       </c>
       <c r="C40">
-        <v>0.00041421673172879796</v>
+        <v>0.00010251818654811323</v>
       </c>
       <c r="D40">
-        <v>1536</v>
+        <v>1298</v>
       </c>
       <c r="E40">
-        <v>0.00041421673172879796</v>
+        <v>0.00010251818654811323</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1206,16 +1206,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1536</v>
+        <v>1301</v>
       </c>
       <c r="C41">
-        <v>0.00092139948687832</v>
+        <v>0.00010660830655692002</v>
       </c>
       <c r="D41">
-        <v>1536</v>
+        <v>1301</v>
       </c>
       <c r="E41">
-        <v>0.00092139948687832</v>
+        <v>0.00010660830655692002</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1223,16 +1223,16 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1536</v>
+        <v>1301</v>
       </c>
       <c r="C42">
-        <v>0.001053571810292659</v>
+        <v>0.00010734741983630553</v>
       </c>
       <c r="D42">
-        <v>1536</v>
+        <v>1301</v>
       </c>
       <c r="E42">
-        <v>0.001053571810292659</v>
+        <v>0.00010734741983630553</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -1240,16 +1240,16 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C43">
-        <v>0.0007970129426956944</v>
+        <v>0.00010380153619905674</v>
       </c>
       <c r="D43">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E43">
-        <v>0.0007970129426956944</v>
+        <v>0.00010380153619905674</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -1257,16 +1257,16 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C44">
-        <v>0.001479673491668382</v>
+        <v>0.00010174116495067637</v>
       </c>
       <c r="D44">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E44">
-        <v>0.001479673491668382</v>
+        <v>0.00010174116495067637</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -1274,16 +1274,16 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C45">
-        <v>0.0031601959637474323</v>
+        <v>0.00010317947338737762</v>
       </c>
       <c r="D45">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E45">
-        <v>0.0031601959637474323</v>
+        <v>0.00010317947338737762</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -1291,16 +1291,16 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C46">
-        <v>0.004823919475239447</v>
+        <v>0.00010393756852954945</v>
       </c>
       <c r="D46">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E46">
-        <v>0.004823919475239447</v>
+        <v>0.00010393756852954945</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -1308,16 +1308,16 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C47">
-        <v>0.03059574510149104</v>
+        <v>0.00010393756853004286</v>
       </c>
       <c r="D47">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E47">
-        <v>0.03059574510149104</v>
+        <v>0.00010393756853004286</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -1325,16 +1325,16 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C48">
-        <v>0.031274375698281835</v>
+        <v>0.00010393756853004747</v>
       </c>
       <c r="D48">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E48">
-        <v>0.031274375698281835</v>
+        <v>0.00010393756853004747</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -1342,16 +1342,16 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C49">
-        <v>0.030616059297114348</v>
+        <v>0.00010393756853004347</v>
       </c>
       <c r="D49">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E49">
-        <v>0.030616059297114348</v>
+        <v>0.00010393756853004347</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -1359,16 +1359,16 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C50">
-        <v>0.030989376923557695</v>
+        <v>0.0001039375685299687</v>
       </c>
       <c r="D50">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E50">
-        <v>0.030989376923557695</v>
+        <v>0.0001039375685299687</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -1376,16 +1376,16 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C51">
-        <v>0.031146284173177212</v>
+        <v>0.00010393756853004988</v>
       </c>
       <c r="D51">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E51">
-        <v>0.031146284173177212</v>
+        <v>0.00010393756853004988</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -1393,16 +1393,16 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1538</v>
+        <v>1302</v>
       </c>
       <c r="C52">
-        <v>0.00029300729778995065</v>
+        <v>0.00010393756853010752</v>
       </c>
       <c r="D52">
-        <v>1538</v>
+        <v>1302</v>
       </c>
       <c r="E52">
-        <v>0.00029300729778995065</v>
+        <v>0.00010393756853010752</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -1410,16 +1410,16 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C53">
-        <v>0.03236733544111234</v>
+        <v>0.00010393756853010242</v>
       </c>
       <c r="D53">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E53">
-        <v>0.03236733544111234</v>
+        <v>0.00010393756853010242</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -1427,16 +1427,16 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C54">
-        <v>0.034130509640291865</v>
+        <v>0.00010393756853004363</v>
       </c>
       <c r="D54">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E54">
-        <v>0.034130509640291865</v>
+        <v>0.00010393756853004363</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -1444,16 +1444,16 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>1539</v>
+        <v>1302</v>
       </c>
       <c r="C55">
-        <v>0.00019228747441203835</v>
+        <v>0.00010393756853004057</v>
       </c>
       <c r="D55">
-        <v>1539</v>
+        <v>1302</v>
       </c>
       <c r="E55">
-        <v>0.00011562043232571117</v>
+        <v>0.00010393756853004057</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -1461,16 +1461,16 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C56">
-        <v>0.03600273626547226</v>
+        <v>0.0001039375685300453</v>
       </c>
       <c r="D56">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E56">
-        <v>0.03600273626547226</v>
+        <v>0.0001039375685300453</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -1478,16 +1478,16 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C57">
-        <v>0.03600273619527966</v>
+        <v>0.00010393756853004304</v>
       </c>
       <c r="D57">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E57">
-        <v>0.03600273619527966</v>
+        <v>0.00010393756853004304</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -1495,16 +1495,16 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C58">
-        <v>0.03600273622186233</v>
+        <v>0.00010393756853004417</v>
       </c>
       <c r="D58">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E58">
-        <v>0.03600273622186233</v>
+        <v>0.00010393756853004417</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -1512,16 +1512,16 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C59">
-        <v>0.03600273620086514</v>
+        <v>0.0001039375685296894</v>
       </c>
       <c r="D59">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E59">
-        <v>0.03600273620086514</v>
+        <v>0.0001039375685296894</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -1529,16 +1529,16 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C60">
-        <v>0.03600273625114722</v>
+        <v>0.0001039375685293949</v>
       </c>
       <c r="D60">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E60">
-        <v>0.03600273625114722</v>
+        <v>0.0001039375685293949</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -1546,16 +1546,16 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C61">
-        <v>0.03600273619292505</v>
+        <v>0.00010393756853020691</v>
       </c>
       <c r="D61">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E61">
-        <v>0.03600273619292505</v>
+        <v>0.00010393756853020691</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -1563,16 +1563,16 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C62">
-        <v>0.03600273619276331</v>
+        <v>0.00010393756853002691</v>
       </c>
       <c r="D62">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E62">
-        <v>0.03600273619276331</v>
+        <v>0.00010393756853002691</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -1580,16 +1580,16 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C63">
-        <v>0.036002736192240516</v>
+        <v>0.00010393756852992388</v>
       </c>
       <c r="D63">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E63">
-        <v>0.036002736192240516</v>
+        <v>0.00010393756852992388</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -1597,16 +1597,16 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="C64">
-        <v>0.03600273619160722</v>
+        <v>0.00010393756852966484</v>
       </c>
       <c r="D64">
-        <v>1536</v>
+        <v>1302</v>
       </c>
       <c r="E64">
-        <v>0.03600273619160722</v>
+        <v>0.00010393756852966484</v>
       </c>
     </row>
   </sheetData>
